--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
@@ -71,8 +71,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="yntzor5v" xfId="1"/>
-    <cellStyle name="yntzor5v_Alternate" xfId="2"/>
+    <cellStyle name="itimjz2p" xfId="1"/>
+    <cellStyle name="itimjz2p_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
@@ -61,7 +61,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -71,8 +71,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="itimjz2p" xfId="1"/>
-    <cellStyle name="itimjz2p_Alternate" xfId="2"/>
+    <cellStyle name="5wszwdus" xfId="1"/>
+    <cellStyle name="5wszwdus_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -92,8 +92,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
@@ -53,26 +53,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="5wszwdus" xfId="1"/>
-    <cellStyle name="5wszwdus_Alternate" xfId="2"/>
+    <cellStyle name="4r5tdiqo" xfId="1"/>
+    <cellStyle name="4r5tdiqo_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -87,7 +82,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
@@ -7,6 +7,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$B$1</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -66,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="4r5tdiqo" xfId="1"/>
-    <cellStyle name="4r5tdiqo_Alternate" xfId="2"/>
+    <cellStyle name="dpphotdt" xfId="1"/>
+    <cellStyle name="dpphotdt_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -80,6 +83,9 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="78.88265228271484" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="3" t="s">
@@ -87,6 +93,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
@@ -69,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="dpphotdt" xfId="1"/>
-    <cellStyle name="dpphotdt_Alternate" xfId="2"/>
+    <cellStyle name="y3hgzziv" xfId="1"/>
+    <cellStyle name="y3hgzziv_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-02/Sample-02.xlsx
@@ -69,8 +69,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="y3hgzziv" xfId="1"/>
-    <cellStyle name="y3hgzziv_Alternate" xfId="2"/>
+    <cellStyle name="j0o031sr" xfId="1"/>
+    <cellStyle name="j0o031sr_Alternate" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
